--- a/data/input/absenteeism_data_23.xlsx
+++ b/data/input/absenteeism_data_23.xlsx
@@ -476,69 +476,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>242</v>
+        <v>15353</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Emanuel Fernandes</t>
+          <t>Bernardo da Costa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45085</v>
+        <v>45103</v>
       </c>
       <c r="G2" t="n">
-        <v>7443.82</v>
+        <v>4252.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>50351</v>
+        <v>66541</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Benjamin Cardoso</t>
+          <t>João Gabriel Viana</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45104</v>
+        <v>45082</v>
       </c>
       <c r="G3" t="n">
-        <v>9879.280000000001</v>
+        <v>9745.469999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>90122</v>
+        <v>88233</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Srta. Ana Júlia Castro</t>
+          <t>Renan Campos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,31 +548,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45090</v>
+        <v>45105</v>
       </c>
       <c r="G4" t="n">
-        <v>9746.450000000001</v>
+        <v>8426.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>48076</v>
+        <v>57348</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sra. Ana Clara Farias</t>
+          <t>João Pedro Pinto</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,80 +581,80 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45083</v>
+        <v>45091</v>
       </c>
       <c r="G5" t="n">
-        <v>6315.36</v>
+        <v>8176.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>62562</v>
+        <v>46480</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Breno Rocha</t>
+          <t>Emanuelly Carvalho</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45097</v>
+        <v>45082</v>
       </c>
       <c r="G6" t="n">
-        <v>4760.37</v>
+        <v>4427.29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>84758</v>
+        <v>14086</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luiz Miguel Porto</t>
+          <t>Sra. Ana Beatriz Martins</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45097</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>9450.4</v>
+        <v>5235.89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>57868</v>
+        <v>82809</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dra. Gabrielly Gomes</t>
+          <t>Antônio Cardoso</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,104 +664,104 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45079</v>
+        <v>45088</v>
       </c>
       <c r="G8" t="n">
-        <v>10420.33</v>
+        <v>11705.42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96191</v>
+        <v>90630</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Miguel da Paz</t>
+          <t>Maria Luiza Novaes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45106</v>
+        <v>45094</v>
       </c>
       <c r="G9" t="n">
-        <v>7918.4</v>
+        <v>3860.82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>54496</v>
+        <v>88375</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Srta. Rafaela Carvalho</t>
+          <t>Murilo Ramos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45083</v>
+        <v>45086</v>
       </c>
       <c r="G10" t="n">
-        <v>8775.34</v>
+        <v>8114.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>78845</v>
+        <v>96577</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vitor Gabriel Pereira</t>
+          <t>Ana Julia da Luz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45083</v>
+        <v>45093</v>
       </c>
       <c r="G11" t="n">
-        <v>6127.13</v>
+        <v>12287.51</v>
       </c>
     </row>
   </sheetData>
